--- a/data/trans_dic/Q20C_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q20C_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -769,12 +770,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,7; 75,42</t>
+          <t>11,16; 73,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,2; 100,0</t>
+          <t>14,51; 100,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -869,7 +870,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,6</t>
+          <t>0,0; 78,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,12 +885,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,76</t>
+          <t>0,0; 65,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,42</t>
+          <t>0,0; 79,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -904,17 +905,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,03</t>
+          <t>0,0; 37,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,79</t>
+          <t>0,0; 55,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,6</t>
+          <t>0,0; 71,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1009,7 +1010,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,65</t>
+          <t>0,0; 38,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1024,42 +1025,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,23</t>
+          <t>0,0; 56,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,95; 57,5</t>
+          <t>11,3; 55,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,89</t>
+          <t>0,0; 54,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 58,42</t>
+          <t>7,69; 59,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,91</t>
+          <t>0,0; 34,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,36; 42,09</t>
+          <t>10,0; 42,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,11</t>
+          <t>0,0; 28,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 54,4</t>
+          <t>6,02; 53,95</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 100,0</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,23; 61,37</t>
+          <t>8,34; 61,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,89; 77,91</t>
+          <t>11,21; 78,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,47; 62,57</t>
+          <t>10,59; 64,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,43</t>
+          <t>0,0; 51,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,25; 61,77</t>
+          <t>18,14; 58,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,17; 73,03</t>
+          <t>15,14; 73,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,56</t>
+          <t>0,0; 10,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,35; 63,06</t>
+          <t>13,45; 63,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,52; 52,8</t>
+          <t>19,31; 54,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,44; 63,92</t>
+          <t>19,28; 62,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 38,95</t>
+          <t>7,91; 38,12</t>
         </is>
       </c>
     </row>
@@ -1284,27 +1285,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,1</t>
+          <t>0,0; 58,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,41</t>
+          <t>0,0; 55,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,94</t>
+          <t>0,0; 56,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,49; 48,91</t>
+          <t>8,45; 49,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,89</t>
+          <t>0,0; 54,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1314,32 +1315,32 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,88; 70,19</t>
+          <t>9,74; 70,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,63; 62,05</t>
+          <t>9,52; 58,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 45,87</t>
+          <t>5,3; 41,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,16</t>
+          <t>0,0; 30,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,89; 49,21</t>
+          <t>9,06; 46,99</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,06; 44,79</t>
+          <t>14,3; 44,76</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,18; 100,0</t>
+          <t>19,44; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,62; 68,45</t>
+          <t>7,41; 67,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,08</t>
+          <t>0,0; 61,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,51; 49,24</t>
+          <t>13,48; 50,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,94</t>
+          <t>0,0; 46,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,43; 54,81</t>
+          <t>8,46; 62,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,0; 54,85</t>
+          <t>7,07; 48,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,01; 75,78</t>
+          <t>12,74; 75,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,45; 64,4</t>
+          <t>16,46; 63,02</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,56; 50,36</t>
+          <t>9,99; 47,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,81; 44,9</t>
+          <t>8,78; 43,24</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,53; 50,54</t>
+          <t>18,15; 49,25</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1575,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,6</t>
+          <t>0,0; 64,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,7 +1585,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,24</t>
+          <t>0,0; 80,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1599,12 +1600,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,53; 32,27</t>
+          <t>3,41; 33,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,72</t>
+          <t>0,0; 62,93</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,65</t>
+          <t>0,0; 37,9</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 20,62</t>
+          <t>2,23; 19,97</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,49; 44,76</t>
+          <t>14,05; 43,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,52; 32,28</t>
+          <t>9,37; 30,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,01; 35,68</t>
+          <t>11,87; 38,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,44; 38,93</t>
+          <t>17,12; 40,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,32; 30,56</t>
+          <t>8,14; 30,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,42; 37,67</t>
+          <t>17,96; 37,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,25; 39,03</t>
+          <t>16,52; 39,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,26; 28,34</t>
+          <t>11,24; 29,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,24; 31,22</t>
+          <t>13,61; 30,44</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>16,95; 31,65</t>
+          <t>17,01; 32,48</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17,23; 33,82</t>
+          <t>16,72; 33,58</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,4; 31,22</t>
+          <t>15,63; 30,9</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con mayor tiempo de espera (más de 7 meses) para ser hopitalizado</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2080</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2052</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>941</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3102</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3021</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2937</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3382</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3140</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 697</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4020</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2434</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2914</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>951; 6261</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>809; 5574</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1386</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1857</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1808</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1857</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1386</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1520</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3609</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1030</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3741</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3829</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3954</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3764</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1536</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4019</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5250</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4656</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5278</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5982</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2223</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3578</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1539</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4727</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1706</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4618</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3525</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2023; 9965</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4183</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>625; 4842</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4148</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3017; 12875</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4741</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>790; 7078</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2733</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3469</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10003</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4723</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>13472</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9442</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4617</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3806</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1055; 7751</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1094; 7611</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1401; 8493</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5100</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4664; 15100</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1919; 9262</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1207</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1838; 8729</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>7407; 21066</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4325; 13998</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1934; 9314</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3749</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3885</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6338</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6290</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4724</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5134</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7939</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1274; 7393</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5845</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1841</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1079; 7762</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>745; 4618</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>993; 7864</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6025</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2282; 11830</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3274; 10251</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3269</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3052</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4054</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1830</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2977</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2795</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2044</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6030</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4798</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>6098</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>973; 5006</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>750; 6797</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5407</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1972; 7337</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4645</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>939; 6918</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>860; 5922</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>604; 3571</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2464; 9432</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2121; 10143</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1835; 9042</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3516; 9541</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1157</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1157</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1184</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1949</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3009</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 950</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4423</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1769</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2223</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>320; 3171</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5158</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5381</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>323; 2885</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>8870</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>11456</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>11143</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>14839</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>8690</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>21962</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>16019</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>8289</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>17560</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>33418</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>27161</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>23127</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>4680; 14587</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>5604; 18409</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>6087; 19857</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>9714; 22730</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>3990; 14723</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>14580; 30653</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>9952; 23784</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>4944; 12785</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>11208; 25061</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>23978; 45776</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>18642; 37453</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>15738; 31122</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>